--- a/fhir/ig/urgencia/StructureDefinition-AcompananteUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-AcompananteUrg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -728,10 +728,10 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>RelatedPerson.name.family.extension:SegundoApellido</t>
-  </si>
-  <si>
-    <t>SegundoApellido</t>
+    <t>RelatedPerson.name.family.extension:segundoApellido</t>
+  </si>
+  <si>
+    <t>segundoApellido</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/SegundoApellido}
@@ -1512,9 +1512,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.96875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.9140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.0625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>

--- a/fhir/ig/urgencia/StructureDefinition-AcompananteUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-AcompananteUrg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/StructureDefinition-AcompananteUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-AcompananteUrg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
